--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/20/seed5/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.58799999999999</v>
+        <v>16.45880000000001</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.4465</v>
+        <v>-12.6352</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.8675</v>
+        <v>16.7851</v>
       </c>
     </row>
     <row r="4">
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.9906</v>
+        <v>-11.96479999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -593,7 +593,7 @@
         <v>-7.01</v>
       </c>
       <c r="E9" t="n">
-        <v>17.24270000000002</v>
+        <v>17.24820000000001</v>
       </c>
     </row>
     <row r="10">
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.070900000000002</v>
+        <v>5.853900000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.969199999999998</v>
+        <v>5.256499999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.1186</v>
+        <v>-13.24619999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.418499999999997</v>
+        <v>4.690799999999999</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.2255</v>
+        <v>16.2191</v>
       </c>
     </row>
     <row r="16">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.70410000000001</v>
+        <v>16.56080000000001</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.9568</v>
+        <v>15.74779999999999</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.11120000000001</v>
+        <v>17.13860000000001</v>
       </c>
     </row>
     <row r="26">
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.85690000000001</v>
+        <v>-12.36880000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.812700000000006</v>
+        <v>6.908600000000004</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.74779999999999</v>
+        <v>16.7853</v>
       </c>
     </row>
     <row r="28">
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.717300000000005</v>
+        <v>6.816700000000005</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -916,7 +916,7 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.64820000000001</v>
+        <v>16.7356</v>
       </c>
     </row>
     <row r="29">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.8053</v>
+        <v>15.9265</v>
       </c>
     </row>
     <row r="31">
@@ -958,10 +958,10 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>3.997799999999996</v>
+        <v>4.046799999999997</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.6269</v>
+        <v>-13.4781</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.059699999999995</v>
+        <v>6.645099999999998</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.62699999999998</v>
+        <v>16.61819999999998</v>
       </c>
     </row>
     <row r="33">
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-13.35950000000002</v>
+        <v>-13.22960000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.061500000000002</v>
+        <v>9.116100000000003</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.865</v>
+        <v>-13.63869999999999</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.992899999999996</v>
+        <v>5.829199999999999</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-11.9579</v>
+        <v>-12.0332</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.61200000000001</v>
+        <v>-13.23910000000001</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.90399999999999</v>
+        <v>16.8459</v>
       </c>
     </row>
     <row r="45">
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.33339999999999</v>
+        <v>-13.12239999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>7.832900000000004</v>
+        <v>7.616299999999998</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.7852</v>
+        <v>16.7605</v>
       </c>
     </row>
     <row r="48">
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.75879999999999</v>
+        <v>-10.65969999999999</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.771700000000003</v>
+        <v>4.6287</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.868699999999997</v>
+        <v>4.823399999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.514499999999999</v>
+        <v>4.541399999999999</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.66169999999999</v>
+        <v>-14.81089999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.34560000000001</v>
+        <v>16.34820000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.698</v>
+        <v>16.66370000000001</v>
       </c>
     </row>
     <row r="63">
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.782699999999998</v>
+        <v>6.079399999999997</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.907099999999994</v>
+        <v>5.794799999999996</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.499300000000004</v>
+        <v>5.623800000000005</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.614699999999997</v>
+        <v>8.549500000000002</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1749,7 +1749,7 @@
         <v>-6.2</v>
       </c>
       <c r="E77" t="n">
-        <v>17.33300000000002</v>
+        <v>17.22140000000002</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.51280000000001</v>
+        <v>16.47080000000002</v>
       </c>
     </row>
     <row r="79">
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.01069999999999</v>
+        <v>-13.2639</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.963199999999997</v>
+        <v>5.153699999999994</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.9845</v>
+        <v>-14.2456</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>17.05</v>
+        <v>16.8347</v>
       </c>
     </row>
     <row r="85">
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.803600000000006</v>
+        <v>4.793200000000002</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.24250000000002</v>
+        <v>17.22810000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.3448</v>
+        <v>5.3699</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.84930000000002</v>
+        <v>17.85470000000002</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.06940000000002</v>
+        <v>18.04070000000003</v>
       </c>
     </row>
     <row r="93">
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.866899999999999</v>
+        <v>6.987499999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.84409999999998</v>
+        <v>16.78809999999998</v>
       </c>
     </row>
     <row r="97">
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.713399999999998</v>
+        <v>4.826199999999997</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.9269</v>
+        <v>-13.78059999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,13 +2168,13 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.1201</v>
+        <v>-11.9945</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.96789999999999</v>
+        <v>16.90669999999999</v>
       </c>
     </row>
   </sheetData>
